--- a/public/examples/athletes_example.xlsx
+++ b/public/examples/athletes_example.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/azolla/sites/gps/public/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henneth/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="-12740" windowWidth="24800" windowHeight="17200" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Bib Number</t>
   </si>
@@ -44,7 +44,13 @@
     <t>Country Code(IOC)</t>
   </si>
   <si>
-    <t>Visibility</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Visibility (0 or 1)</t>
+  </si>
+  <si>
+    <t>Gender (M or F)</t>
   </si>
 </sst>
 </file>
@@ -360,20 +366,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,13 +400,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 = hidden, 1 = visible" sqref="F1:F1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0 = hidden, 1 = visible" sqref="F2:F1048576">
       <formula1>"0,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="M = Male, F = Female" sqref="G2:G1048576">
+      <formula1>"M,F"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
